--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_43.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_43.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_0</t>
+          <t>model_1_43_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9958587900631983</v>
+        <v>0.9047837241868697</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7219923184567447</v>
+        <v>0.7471076923412406</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7141177494114183</v>
+        <v>0.7610678164225688</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9973734071728023</v>
+        <v>0.5049851903857995</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01737977220663126</v>
+        <v>0.3996023406806671</v>
       </c>
       <c r="G2" t="n">
-        <v>1.859038646587415</v>
+        <v>1.691092025776128</v>
       </c>
       <c r="H2" t="n">
-        <v>1.022584233950047</v>
+        <v>0.8546465665724616</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01614291807958767</v>
+        <v>1.204377298694817</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2189614685990532</v>
+        <v>1.749136617955963</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1318323640333862</v>
+        <v>0.6321410765649288</v>
       </c>
       <c r="L2" t="n">
-        <v>1.002424122889835</v>
+        <v>0.6735441972121248</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1374447407009025</v>
+        <v>0.6590526309067227</v>
       </c>
       <c r="N2" t="n">
-        <v>138.1048965317376</v>
+        <v>35.83457074933133</v>
       </c>
       <c r="O2" t="n">
-        <v>217.3318251481707</v>
+        <v>56.55545977209074</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_1</t>
+          <t>model_1_43_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9959054088828444</v>
+        <v>0.9048190326906754</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7217940343334956</v>
+        <v>0.7470241116111453</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7141975854047939</v>
+        <v>0.7609524843848313</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9973035064723703</v>
+        <v>0.505418503136579</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01718412299339284</v>
+        <v>0.3994541584434789</v>
       </c>
       <c r="G3" t="n">
-        <v>1.860364573432596</v>
+        <v>1.691650930503129</v>
       </c>
       <c r="H3" t="n">
-        <v>1.022298665230899</v>
+        <v>0.8550591025841128</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01657252455269431</v>
+        <v>1.203323043286417</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2187808230164476</v>
+        <v>1.748268189621068</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1310882259907153</v>
+        <v>0.6320238590777083</v>
       </c>
       <c r="L3" t="n">
-        <v>1.002396833824676</v>
+        <v>0.6736652549394586</v>
       </c>
       <c r="M3" t="n">
-        <v>0.136668923161177</v>
+        <v>0.6589304232283977</v>
       </c>
       <c r="N3" t="n">
-        <v>138.1275388064891</v>
+        <v>35.83531253537049</v>
       </c>
       <c r="O3" t="n">
-        <v>217.3544674229222</v>
+        <v>56.5562015581299</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_2</t>
+          <t>model_1_43_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9959486958125503</v>
+        <v>0.9048366352494093</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7215962821492032</v>
+        <v>0.7469818490779798</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7142727244366027</v>
+        <v>0.7608942978283799</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9972267516771096</v>
+        <v>0.5056362449055918</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01700245700946699</v>
+        <v>0.3993802842700568</v>
       </c>
       <c r="G4" t="n">
-        <v>1.861686943199525</v>
+        <v>1.691933540257008</v>
       </c>
       <c r="H4" t="n">
-        <v>1.022029897270931</v>
+        <v>0.8552672325226893</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01704425597572995</v>
+        <v>1.202793274805791</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2186097234417028</v>
+        <v>1.747834867992331</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1303934699648222</v>
+        <v>0.631965413824251</v>
       </c>
       <c r="L4" t="n">
-        <v>1.002371495134117</v>
+        <v>0.6737256065694033</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1359445899329184</v>
+        <v>0.6588694898395024</v>
       </c>
       <c r="N4" t="n">
-        <v>138.1487948308014</v>
+        <v>35.83568244517749</v>
       </c>
       <c r="O4" t="n">
-        <v>217.3757234472345</v>
+        <v>56.5565714679369</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_3</t>
+          <t>model_1_43_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9959886990960148</v>
+        <v>0.9048542448795135</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7213992631265853</v>
+        <v>0.7469393262922412</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7143428822692435</v>
+        <v>0.760836054442974</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9971433306890247</v>
+        <v>0.5058549886530816</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01683457178637009</v>
+        <v>0.3993063804196062</v>
       </c>
       <c r="G5" t="n">
-        <v>1.86300441031096</v>
+        <v>1.692217890321041</v>
       </c>
       <c r="H5" t="n">
-        <v>1.021778946771559</v>
+        <v>0.8554755657351406</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01755695751166228</v>
+        <v>1.202261068498845</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2184458323022609</v>
+        <v>1.747402505217204</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1297481089895729</v>
+        <v>0.6319069396830567</v>
       </c>
       <c r="L5" t="n">
-        <v>1.002348078577943</v>
+        <v>0.6737859824440462</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1352717546048713</v>
+        <v>0.6588085263330592</v>
       </c>
       <c r="N5" t="n">
-        <v>138.1686413252153</v>
+        <v>35.83605257205667</v>
       </c>
       <c r="O5" t="n">
-        <v>217.3955699416483</v>
+        <v>56.55694159481608</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_4</t>
+          <t>model_1_43_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9960255131027369</v>
+        <v>0.9048894274300516</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7212028503585737</v>
+        <v>0.7468533655859313</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7144083401963397</v>
+        <v>0.7607191199357184</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9970534231108977</v>
+        <v>0.5062948743128355</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0166800712755029</v>
+        <v>0.3991587267813382</v>
       </c>
       <c r="G6" t="n">
-        <v>1.864317823395052</v>
+        <v>1.692792709959948</v>
       </c>
       <c r="H6" t="n">
-        <v>1.021544807561805</v>
+        <v>0.8558938336873417</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01810952533009608</v>
+        <v>1.201190821119698</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2182889055910825</v>
+        <v>1.746536217178181</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1291513502658911</v>
+        <v>0.6317900970902742</v>
       </c>
       <c r="L6" t="n">
-        <v>1.002326528915471</v>
+        <v>0.6739066083316056</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1346495906268616</v>
+        <v>0.6586867095092046</v>
       </c>
       <c r="N6" t="n">
-        <v>138.187081217898</v>
+        <v>35.83679225943246</v>
       </c>
       <c r="O6" t="n">
-        <v>217.414009834331</v>
+        <v>56.55768128219187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_5</t>
+          <t>model_1_43_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9960592683961379</v>
+        <v>0.9049070323867696</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7210072138238582</v>
+        <v>0.7468099296535171</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7144691202843843</v>
+        <v>0.7606600936982799</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9969572842439586</v>
+        <v>0.5065163641898022</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01653840753011704</v>
+        <v>0.3990848425440898</v>
       </c>
       <c r="G7" t="n">
-        <v>1.865626045803517</v>
+        <v>1.693083166240006</v>
       </c>
       <c r="H7" t="n">
-        <v>1.021327400711101</v>
+        <v>0.8561049671161211</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0187003903614754</v>
+        <v>1.200651933444969</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2181388708171288</v>
+        <v>1.746103816414779</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1286017399964598</v>
+        <v>0.6317316222448341</v>
       </c>
       <c r="L7" t="n">
-        <v>1.002306769719334</v>
+        <v>0.6739669681832101</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1340765823104104</v>
+        <v>0.6586257452685345</v>
       </c>
       <c r="N7" t="n">
-        <v>138.2041397478843</v>
+        <v>35.83716249348281</v>
       </c>
       <c r="O7" t="n">
-        <v>217.4310683643174</v>
+        <v>56.55805151624222</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_6</t>
+          <t>model_1_43_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9960900189877278</v>
+        <v>0.9049246325941896</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7208122130693657</v>
+        <v>0.7467661967715802</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7145255966154651</v>
+        <v>0.7606010392127623</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9968550624565818</v>
+        <v>0.5067386210466788</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01640935387545868</v>
+        <v>0.3990109782386287</v>
       </c>
       <c r="G8" t="n">
-        <v>1.866930016746704</v>
+        <v>1.69337560822289</v>
       </c>
       <c r="H8" t="n">
-        <v>1.021125388149511</v>
+        <v>0.8563162015866416</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01932864074062954</v>
+        <v>1.200111179698409</v>
       </c>
       <c r="J8" t="n">
-        <v>0.217995188078365</v>
+        <v>1.745670453814242</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1280990002906295</v>
+        <v>0.6316731577632761</v>
       </c>
       <c r="L8" t="n">
-        <v>1.002288769373037</v>
+        <v>0.6740273117515074</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1335524399344883</v>
+        <v>0.6585647918329584</v>
       </c>
       <c r="N8" t="n">
-        <v>138.2198074969695</v>
+        <v>35.83753269617652</v>
       </c>
       <c r="O8" t="n">
-        <v>217.4467361134026</v>
+        <v>56.55842171893593</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_7</t>
+          <t>model_1_43_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9961177918903028</v>
+        <v>0.9049422108933424</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7206179987875143</v>
+        <v>0.7467221538927897</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7145776857506885</v>
+        <v>0.7605416795727874</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9967469014711469</v>
+        <v>0.5069621060249714</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01629279694460099</v>
+        <v>0.3989372058774792</v>
       </c>
       <c r="G9" t="n">
-        <v>1.86822872854372</v>
+        <v>1.693670123156161</v>
       </c>
       <c r="H9" t="n">
-        <v>1.020939068333119</v>
+        <v>0.8565285275769624</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01999339315646125</v>
+        <v>1.199567437916896</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2178606872709736</v>
+        <v>1.745239702239947</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1276432408888187</v>
+        <v>0.6316147606551633</v>
       </c>
       <c r="L9" t="n">
-        <v>1.002272512064213</v>
+        <v>0.6740875802057453</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1330772779113904</v>
+        <v>0.6585039086390545</v>
       </c>
       <c r="N9" t="n">
-        <v>138.234064348155</v>
+        <v>35.83790250646159</v>
       </c>
       <c r="O9" t="n">
-        <v>217.4609929645881</v>
+        <v>56.558791529221</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_8</t>
+          <t>model_1_43_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9961427210377041</v>
+        <v>0.8920125177416254</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7204245669684353</v>
+        <v>0.6135972964720913</v>
       </c>
       <c r="D10" t="n">
-        <v>0.714624898462324</v>
+        <v>0.6807506097017466</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9966329960952852</v>
+        <v>0.8140782901410079</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01618817464586436</v>
+        <v>0.4532003620825067</v>
       </c>
       <c r="G10" t="n">
-        <v>1.869522208008572</v>
+        <v>2.583876657711976</v>
       </c>
       <c r="H10" t="n">
-        <v>1.020770191201148</v>
+        <v>1.141936557953619</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02069345033027133</v>
+        <v>0.4523498738617758</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2177336759670857</v>
+        <v>1.747249888356137</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1272327577546929</v>
+        <v>0.6732015761140988</v>
       </c>
       <c r="L10" t="n">
-        <v>1.002257919392563</v>
+        <v>0.6297572036855728</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1326493196604276</v>
+        <v>0.7018611609286526</v>
       </c>
       <c r="N10" t="n">
-        <v>138.2469485268525</v>
+        <v>35.58284190176442</v>
       </c>
       <c r="O10" t="n">
-        <v>217.4738771432855</v>
+        <v>56.30373092452383</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_9</t>
+          <t>model_1_43_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9961648411714109</v>
+        <v>0.8890791904529932</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7202317732334389</v>
+        <v>0.6117108336199022</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7146688584574055</v>
+        <v>0.6742327260623782</v>
       </c>
       <c r="E11" t="n">
-        <v>0.996513533325065</v>
+        <v>0.8269914645874106</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01609534117669193</v>
+        <v>0.4655109092080884</v>
       </c>
       <c r="G11" t="n">
-        <v>1.870811420602226</v>
+        <v>2.596491443490926</v>
       </c>
       <c r="H11" t="n">
-        <v>1.020612948847689</v>
+        <v>1.165250649803032</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02142766299287288</v>
+        <v>0.4209319569524727</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2176139985229171</v>
+        <v>1.752782202243815</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1268674157405751</v>
+        <v>0.6822835988121717</v>
       </c>
       <c r="L11" t="n">
-        <v>1.002244971021613</v>
+        <v>0.6197000815531196</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1322684242804066</v>
+        <v>0.7113298241353612</v>
       </c>
       <c r="N11" t="n">
-        <v>138.258450833548</v>
+        <v>35.52923949415297</v>
       </c>
       <c r="O11" t="n">
-        <v>217.4853794499811</v>
+        <v>56.25012851691238</v>
       </c>
     </row>
   </sheetData>
